--- a/biology/Zoologie/Lucy_Cooke/Lucy_Cooke.xlsx
+++ b/biology/Zoologie/Lucy_Cooke/Lucy_Cooke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucy Cooke, née le 22 mars 1970, est une zoologue, auteure, productrice de télévision, réalisatrice et présentatrice britannique. Elle est diplômée en zoologie de New College, Oxford, où elle a travaillé sous la direction de Richard Dawkins[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucy Cooke, née le 22 mars 1970, est une zoologue, auteure, productrice de télévision, réalisatrice et présentatrice britannique. Elle est diplômée en zoologie de New College, Oxford, où elle a travaillé sous la direction de Richard Dawkins.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle commence sa carrière dans la production de comédies télévisées, puis se tourne vers le documentaire, se spécialisant plus tard en histoire naturelle. Elle est notamment la réalisatrice et productrice de Balderdash and Piffle, la réalisatrice de Medieval Lives et You Don't Know You're Born, et la présentatrice de Springwatch [2].
-Elle a présenté toute une gamme de programmes d'histoire naturelle pour la BBC. En 2015, elle présente Nature's Boldest Thieves and Animals Unexpected [3]. En 2016, elle est co-présentatrice de la série en quatre parties Ingenious Animals. En 2019, elle présente la série d'Animal Planet intitulée  Nature's Strangest Mysteries: Solved.
-Elle est l'auteure de The Truth About Animals: Stoned Sloths, Lovelorn Hippos, and Other Tales from the Wild Side of Wildlife [4], traduit dans une vingtaine de langues et paru en France chez Albin Michel sous le titre : "L'énigme de l'anguille et autres bizarreries animales". Dans cet ouvrage, finaliste du Royal Society Science Prize, Lucy Cooke s'intéresse à des animaux qui, à leur avantage et plus souvent à leur détriment, sont l'objet de croyances et de représentations inexactes voire totalement erronées, dans la tradition populaire mais aussi de la part de naturalistes anciens, y compris les plus renommés. Elle dénonce avec humour l'anthropomorphisme qui a souvent influencé ces représentations. Parmi les animaux concernés figurent le paresseux, la hyène, le pingouin, le panda, le vautour et le chimpanzé. S'agissant de ce dernier, elle s'appuie sur les travaux de la primatologue Cat Hobaiter. Lucy Cooke a précédemment écrit trois livres sur les paresseux : A Little Book of Sloth, The Power of Sloth et Life in the Sloth Lane : Slow Down and Smell the Hibiscus [2].
-Son dernier ouvrage : Bitch, paru en 2024 aux éditions Albin Michel, raconte l’influence du sexisme dans la science qui étudie les animaux[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle commence sa carrière dans la production de comédies télévisées, puis se tourne vers le documentaire, se spécialisant plus tard en histoire naturelle. Elle est notamment la réalisatrice et productrice de Balderdash and Piffle, la réalisatrice de Medieval Lives et You Don't Know You're Born, et la présentatrice de Springwatch .
+Elle a présenté toute une gamme de programmes d'histoire naturelle pour la BBC. En 2015, elle présente Nature's Boldest Thieves and Animals Unexpected . En 2016, elle est co-présentatrice de la série en quatre parties Ingenious Animals. En 2019, elle présente la série d'Animal Planet intitulée  Nature's Strangest Mysteries: Solved.
+Elle est l'auteure de The Truth About Animals: Stoned Sloths, Lovelorn Hippos, and Other Tales from the Wild Side of Wildlife , traduit dans une vingtaine de langues et paru en France chez Albin Michel sous le titre : "L'énigme de l'anguille et autres bizarreries animales". Dans cet ouvrage, finaliste du Royal Society Science Prize, Lucy Cooke s'intéresse à des animaux qui, à leur avantage et plus souvent à leur détriment, sont l'objet de croyances et de représentations inexactes voire totalement erronées, dans la tradition populaire mais aussi de la part de naturalistes anciens, y compris les plus renommés. Elle dénonce avec humour l'anthropomorphisme qui a souvent influencé ces représentations. Parmi les animaux concernés figurent le paresseux, la hyène, le pingouin, le panda, le vautour et le chimpanzé. S'agissant de ce dernier, elle s'appuie sur les travaux de la primatologue Cat Hobaiter. Lucy Cooke a précédemment écrit trois livres sur les paresseux : A Little Book of Sloth, The Power of Sloth et Life in the Sloth Lane : Slow Down and Smell the Hibiscus .
+Son dernier ouvrage : Bitch, paru en 2024 aux éditions Albin Michel, raconte l’influence du sexisme dans la science qui étudie les animaux,.
 </t>
         </is>
       </c>
